--- a/resources/experiment 1/metrics/R2/average time/Angina.xlsx
+++ b/resources/experiment 1/metrics/R2/average time/Angina.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9929135072932246</v>
+        <v>0.9930009045483686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9929135072932246</v>
+        <v>0.9928417572466479</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9929135072932246</v>
+        <v>0.9932420033692001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9953532586136795</v>
+        <v>0.9925446792382711</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9953532586136794</v>
+        <v>0.9931567092727579</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9953532586136794</v>
+        <v>0.9932328216354307</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9837055827029818</v>
+        <v>0.9944932773543496</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9837055827029818</v>
+        <v>0.9948485036069429</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9837055827029818</v>
+        <v>0.9946160190017307</v>
       </c>
     </row>
   </sheetData>
